--- a/src/Input_Files/kingdom_names/francia_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/francia_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{179F1A76-6C06-4702-BEBF-61C0484994BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714C2444-2E8A-48EA-8693-D29FC68C8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>RGB</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>feudal_government</t>
+  </si>
+  <si>
+    <t>Lotharingia</t>
+  </si>
+  <si>
+    <t>lotharingia</t>
+  </si>
+  <si>
+    <t>(166, 235, 192)</t>
+  </si>
+  <si>
+    <t>(116, 134, 194)</t>
+  </si>
+  <si>
+    <t>Aquitaine</t>
+  </si>
+  <si>
+    <t>aquitaine</t>
   </si>
 </sst>
 </file>
@@ -468,19 +486,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -514,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -528,17 +546,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/src/Input_Files/kingdom_names/francia_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/francia_kingdoms.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714C2444-2E8A-48EA-8693-D29FC68C8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC8505A-E0BF-44F1-B31A-D99068C4E22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>RGB</t>
   </si>
@@ -37,9 +48,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>(0, 128, 255)</t>
-  </si>
-  <si>
     <t>france</t>
   </si>
   <si>
@@ -49,9 +57,6 @@
     <t>CKU_francien_1</t>
   </si>
   <si>
-    <t>(200, 185, 19)</t>
-  </si>
-  <si>
     <t>arles</t>
   </si>
   <si>
@@ -67,16 +72,37 @@
     <t>lotharingia</t>
   </si>
   <si>
-    <t>(166, 235, 192)</t>
-  </si>
-  <si>
-    <t>(116, 134, 194)</t>
-  </si>
-  <si>
     <t>Aquitaine</t>
   </si>
   <si>
     <t>aquitaine</t>
+  </si>
+  <si>
+    <t>(87, 160, 211)</t>
+  </si>
+  <si>
+    <t>(236, 232, 123)</t>
+  </si>
+  <si>
+    <t>(153, 112, 171)</t>
+  </si>
+  <si>
+    <t>(0, 38, 155)</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>metz</t>
+  </si>
+  <si>
+    <t>bordeaux</t>
   </si>
 </sst>
 </file>
@@ -483,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,11 +520,13 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -509,76 +537,94 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
